--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7FF89A-1CAD-4D4C-B39B-9653C328185C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{65C66948-68AF-CD44-BCF8-E2F02891805E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4188,7 +4188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -6456,13 +6456,13 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="34" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="739" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="739" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8830,38 +8830,38 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="153" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="1" max="1" width="17.5" style="152" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="152" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="152"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="154">
         <v>328555.68181818182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="151" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13979,7 +13979,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -14002,7 +14002,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="151"/>
+      <c r="B3" s="155"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -14024,7 +14024,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="151"/>
+      <c r="B4" s="155"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -14046,7 +14046,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14069,7 +14069,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="151"/>
+      <c r="B6" s="155"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14090,7 +14090,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="151"/>
+      <c r="B7" s="155"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14111,7 +14111,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="151" t="s">
+      <c r="B8" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14134,7 +14134,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="151"/>
+      <c r="B9" s="155"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14155,7 +14155,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="151"/>
+      <c r="B10" s="155"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14176,7 +14176,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14199,7 +14199,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="151"/>
+      <c r="B12" s="155"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14220,7 +14220,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="151"/>
+      <c r="B13" s="155"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14241,7 +14241,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14264,7 +14264,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="151"/>
+      <c r="B15" s="155"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14285,7 +14285,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="151"/>
+      <c r="B16" s="155"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14339,7 +14339,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="151" t="s">
+      <c r="B19" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14362,7 +14362,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="151"/>
+      <c r="B20" s="155"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="151"/>
+      <c r="B21" s="155"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14404,7 +14404,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="151" t="s">
+      <c r="B22" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14427,7 +14427,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="151"/>
+      <c r="B23" s="155"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14448,7 +14448,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="151"/>
+      <c r="B24" s="155"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14469,7 +14469,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14492,7 +14492,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="151"/>
+      <c r="B26" s="155"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14513,7 +14513,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="151"/>
+      <c r="B27" s="155"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14534,7 +14534,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="151" t="s">
+      <c r="B28" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14557,7 +14557,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="151"/>
+      <c r="B29" s="155"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14578,7 +14578,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="151"/>
+      <c r="B30" s="155"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14599,7 +14599,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14622,7 +14622,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="151"/>
+      <c r="B32" s="155"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14643,7 +14643,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="151"/>
+      <c r="B33" s="155"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14690,7 +14690,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="155" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14713,7 +14713,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="151"/>
+      <c r="B37" s="155"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14734,7 +14734,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="151"/>
+      <c r="B38" s="155"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14756,7 +14756,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="151" t="s">
+      <c r="B39" s="155" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14779,7 +14779,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="151"/>
+      <c r="B40" s="155"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14800,7 +14800,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="151"/>
+      <c r="B41" s="155"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="155" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14844,7 +14844,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="151"/>
+      <c r="B43" s="155"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14865,7 +14865,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="151"/>
+      <c r="B44" s="155"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14886,7 +14886,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="151" t="s">
+      <c r="B45" s="155" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14909,7 +14909,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="151"/>
+      <c r="B46" s="155"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14930,7 +14930,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="151"/>
+      <c r="B47" s="155"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14951,7 +14951,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="151" t="s">
+      <c r="B48" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14974,7 +14974,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="151"/>
+      <c r="B49" s="155"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14995,7 +14995,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="151"/>
+      <c r="B50" s="155"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -15040,6 +15040,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15050,11 +15055,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27813,8 +27813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -28062,9 +28062,7 @@
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B39" s="90" t="s">
-        <v>161</v>
-      </c>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{65C66948-68AF-CD44-BCF8-E2F02891805E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3DF1E1CB-608E-8D4B-A671-3E5740F225F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="30" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="27" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -64,7 +64,7 @@
     <definedName name="PWPop">'[1]Baseline year demographics'!$C$44:$C$47</definedName>
     <definedName name="WRAPop">'[1]Baseline year demographics'!$C$32:$C$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -4188,7 +4188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="274">
   <si>
     <t>year</t>
   </si>
@@ -15040,11 +15040,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15055,6 +15050,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -25322,8 +25322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25425,7 +25425,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="125">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C7" s="147">
         <v>0.95</v>
@@ -27813,8 +27813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27985,7 +27985,9 @@
       <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="90"/>
+      <c r="B26" s="90" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F798D679-7B5B-D94D-9F82-335FCD17F97E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{713CCC0F-7117-864F-A5A2-15C9DBA03596}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -4977,7 +4977,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5221,6 +5221,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -6411,7 +6417,6 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -6429,6 +6434,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -8802,32 +8808,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="151" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="151" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="151"/>
+    <col min="1" max="1" width="17.5" style="150" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="150" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="150"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="149" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="149" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="149" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="153">
+      <c r="B2" s="152">
         <v>328555.68181818182</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="149" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="152"/>
+      <c r="B3" s="151"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8881,17 +8887,17 @@
       <c r="B2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="148">
+      <c r="C2" s="147">
         <f>1-D2-E2-F2</f>
         <v>0.77777325581395351</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="148">
         <v>0.12936191860465118</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="148">
         <v>7.7941569767441876E-2</v>
       </c>
-      <c r="F2" s="149">
+      <c r="F2" s="148">
         <v>1.492325581395349E-2</v>
       </c>
     </row>
@@ -13776,25 +13782,25 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="153" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="C18" s="156">
+      <c r="C18" s="155">
         <v>1.5</v>
       </c>
-      <c r="D18" s="156">
+      <c r="D18" s="155">
         <v>1.39</v>
       </c>
-      <c r="E18" s="155">
-        <v>1</v>
-      </c>
-      <c r="F18" s="155">
-        <v>1</v>
-      </c>
-      <c r="G18" s="155">
+      <c r="E18" s="154">
+        <v>1</v>
+      </c>
+      <c r="F18" s="154">
+        <v>1</v>
+      </c>
+      <c r="G18" s="154">
         <v>1</v>
       </c>
     </row>
@@ -13925,7 +13931,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13948,7 +13954,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="159"/>
+      <c r="B3" s="158"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13970,7 +13976,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="159"/>
+      <c r="B4" s="158"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -13992,7 +13998,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14015,7 +14021,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="159"/>
+      <c r="B6" s="158"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14036,7 +14042,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="159"/>
+      <c r="B7" s="158"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14057,7 +14063,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14080,7 +14086,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="159"/>
+      <c r="B9" s="158"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14101,7 +14107,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="159"/>
+      <c r="B10" s="158"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14122,7 +14128,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14145,7 +14151,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="159"/>
+      <c r="B12" s="158"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14166,7 +14172,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="159"/>
+      <c r="B13" s="158"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14187,7 +14193,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14210,7 +14216,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="159"/>
+      <c r="B15" s="158"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14231,7 +14237,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="159"/>
+      <c r="B16" s="158"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14285,7 +14291,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="159" t="s">
+      <c r="B19" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14308,7 +14314,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="159"/>
+      <c r="B20" s="158"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14329,7 +14335,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="159"/>
+      <c r="B21" s="158"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14350,7 +14356,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14373,7 +14379,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="159"/>
+      <c r="B23" s="158"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14394,7 +14400,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="159"/>
+      <c r="B24" s="158"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14415,7 +14421,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="159" t="s">
+      <c r="B25" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14438,7 +14444,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="159"/>
+      <c r="B26" s="158"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14459,7 +14465,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="159"/>
+      <c r="B27" s="158"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14480,7 +14486,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14503,7 +14509,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="159"/>
+      <c r="B29" s="158"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14524,7 +14530,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="159"/>
+      <c r="B30" s="158"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14545,7 +14551,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14568,7 +14574,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="159"/>
+      <c r="B32" s="158"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14589,7 +14595,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="159"/>
+      <c r="B33" s="158"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14636,7 +14642,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="158" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14659,7 +14665,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="159"/>
+      <c r="B37" s="158"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14680,7 +14686,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="159"/>
+      <c r="B38" s="158"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14702,7 +14708,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="158" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14725,7 +14731,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="159"/>
+      <c r="B40" s="158"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14746,7 +14752,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="159"/>
+      <c r="B41" s="158"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14767,7 +14773,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="158" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14790,7 +14796,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="159"/>
+      <c r="B43" s="158"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14811,7 +14817,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="159"/>
+      <c r="B44" s="158"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14832,7 +14838,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="159" t="s">
+      <c r="B45" s="158" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14855,7 +14861,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="159"/>
+      <c r="B46" s="158"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14876,7 +14882,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="159"/>
+      <c r="B47" s="158"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14897,7 +14903,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="158" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14920,7 +14926,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="159"/>
+      <c r="B49" s="158"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14941,7 +14947,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="159"/>
+      <c r="B50" s="158"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -14986,6 +14992,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -14996,11 +15007,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -18903,50 +18909,50 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="155" t="s">
+      <c r="A53" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C53" s="155" t="s">
+      <c r="C53" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="157">
+      <c r="D53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E53" s="157">
+      <c r="E53" s="156">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F53" s="155">
-        <v>0</v>
-      </c>
-      <c r="G53" s="155">
-        <v>0</v>
-      </c>
-      <c r="H53" s="155">
+      <c r="F53" s="154">
+        <v>0</v>
+      </c>
+      <c r="G53" s="154">
+        <v>0</v>
+      </c>
+      <c r="H53" s="154">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="155"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="155" t="s">
+      <c r="A54" s="154"/>
+      <c r="B54" s="154"/>
+      <c r="C54" s="154" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="157">
+      <c r="D54" s="156">
         <v>0.51</v>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <v>0.51</v>
       </c>
-      <c r="F54" s="155">
-        <v>0</v>
-      </c>
-      <c r="G54" s="155">
-        <v>0</v>
-      </c>
-      <c r="H54" s="155">
+      <c r="F54" s="154">
+        <v>0</v>
+      </c>
+      <c r="G54" s="154">
+        <v>0</v>
+      </c>
+      <c r="H54" s="154">
         <v>0</v>
       </c>
     </row>
@@ -20013,8 +20019,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -22441,8 +22447,8 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="155"/>
-      <c r="B14" s="155" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154" t="s">
         <v>274</v>
       </c>
       <c r="C14" s="108">
@@ -24556,7 +24562,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="155" t="s">
+      <c r="A41" s="154" t="s">
         <v>274</v>
       </c>
     </row>
@@ -25103,19 +25109,19 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="155"/>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155" t="s">
+      <c r="B52" s="154"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="I52" s="155" t="s">
+      <c r="I52" s="154" t="s">
         <v>161</v>
       </c>
     </row>
@@ -25428,8 +25434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25503,10 +25509,10 @@
       <c r="B5" s="124">
         <v>0.06</v>
       </c>
-      <c r="C5" s="147">
+      <c r="C5" s="146">
         <v>0.95</v>
       </c>
-      <c r="D5" s="147">
+      <c r="D5" s="146">
         <v>60</v>
       </c>
     </row>
@@ -25532,10 +25538,10 @@
       <c r="B7" s="124">
         <v>0</v>
       </c>
-      <c r="C7" s="146">
+      <c r="C7" s="145">
         <v>0.95</v>
       </c>
-      <c r="D7" s="146">
+      <c r="D7" s="145">
         <f>0.25/((9862402+13370081 )/57310019)</f>
         <v>0.61670139821042802</v>
       </c>
@@ -25771,10 +25777,10 @@
       <c r="B24" s="120">
         <v>0.19500000000000001</v>
       </c>
-      <c r="C24" s="146">
+      <c r="C24" s="145">
         <v>0.95</v>
       </c>
-      <c r="D24" s="146">
+      <c r="D24" s="145">
         <v>2.06</v>
       </c>
     </row>
@@ -25799,10 +25805,10 @@
       <c r="B26" s="124">
         <v>0.72099999999999997</v>
       </c>
-      <c r="C26" s="147">
+      <c r="C26" s="146">
         <v>0.95</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="146">
         <v>3.78</v>
       </c>
     </row>
@@ -25967,10 +25973,10 @@
       <c r="B38" s="120">
         <v>0.1</v>
       </c>
-      <c r="C38" s="146">
+      <c r="C38" s="145">
         <v>0.95</v>
       </c>
-      <c r="D38" s="146">
+      <c r="D38" s="145">
         <v>4.6500000000000004</v>
       </c>
     </row>
@@ -25981,7 +25987,7 @@
       <c r="B39" s="120">
         <v>0</v>
       </c>
-      <c r="C39" s="146">
+      <c r="C39" s="145">
         <v>0.95</v>
       </c>
       <c r="D39" s="140">
@@ -25996,7 +26002,7 @@
       <c r="B40" s="120">
         <v>0.23100000000000001</v>
       </c>
-      <c r="C40" s="146">
+      <c r="C40" s="145">
         <v>0.95</v>
       </c>
       <c r="D40" s="140">
@@ -26014,7 +26020,7 @@
       <c r="C41" s="120">
         <v>1</v>
       </c>
-      <c r="D41" s="146">
+      <c r="D41" s="145">
         <v>0.41</v>
       </c>
     </row>
@@ -26095,7 +26101,7 @@
       <c r="B47" s="126">
         <v>0.128</v>
       </c>
-      <c r="C47" s="146">
+      <c r="C47" s="145">
         <v>0.95</v>
       </c>
       <c r="D47" s="140">
@@ -26120,10 +26126,10 @@
       <c r="A49" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="144">
-        <v>0</v>
-      </c>
-      <c r="C49" s="145">
+      <c r="B49" s="154">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="C49" s="144">
         <v>0.95</v>
       </c>
       <c r="D49" s="143" t="s">
@@ -26159,16 +26165,16 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="157">
-        <v>0</v>
-      </c>
-      <c r="C52" s="158">
+      <c r="B52" s="156">
+        <v>0</v>
+      </c>
+      <c r="C52" s="157">
         <v>0.95</v>
       </c>
-      <c r="D52" s="158">
+      <c r="D52" s="157">
         <v>8.84</v>
       </c>
     </row>
@@ -26786,8 +26792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:C103"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -27806,7 +27812,7 @@
       </c>
       <c r="C96" s="23"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f>A96</f>
         <v>IYCF 1</v>
@@ -27814,9 +27820,14 @@
       <c r="B97" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="23"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="23">
+        <v>0</v>
+      </c>
+      <c r="D97" s="159">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="str">
         <f>'Programs to include'!A50</f>
         <v>IYCF 2</v>
@@ -27826,7 +27837,7 @@
       </c>
       <c r="C98" s="23"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="str">
         <f>A98</f>
         <v>IYCF 2</v>
@@ -27836,7 +27847,7 @@
       </c>
       <c r="C99" s="23"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="str">
         <f>'Programs to include'!A51</f>
         <v>IYCF 3</v>
@@ -27846,7 +27857,7 @@
       </c>
       <c r="C100" s="23"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="str">
         <f>A100</f>
         <v>IYCF 3</v>
@@ -27856,23 +27867,23 @@
       </c>
       <c r="C101" s="23"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A102" s="155" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A102" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="154" t="s">
         <v>254</v>
       </c>
-      <c r="C102" s="158"/>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="155" t="s">
+      <c r="C102" s="157"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="154" t="s">
         <v>255</v>
       </c>
-      <c r="C103" s="158"/>
+      <c r="C103" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28282,10 +28293,10 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="155" t="s">
+      <c r="A52" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="154" t="s">
         <v>161</v>
       </c>
     </row>

--- a/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
+++ b/input_spreadsheets/Tanzania/regions/InputForCode_Tabora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/regions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{713CCC0F-7117-864F-A5A2-15C9DBA03596}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7C7C70AA-4F95-CC4E-A922-21E6A6E7D9C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="28" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="500" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure &amp; budget" sheetId="47" r:id="rId1"/>
@@ -6431,10 +6431,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="740">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -13931,7 +13931,7 @@
       <c r="A2" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
@@ -13954,7 +13954,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="158"/>
+      <c r="B3" s="159"/>
       <c r="C3" t="s">
         <v>150</v>
       </c>
@@ -13976,7 +13976,7 @@
       <c r="J3" s="37"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="158"/>
+      <c r="B4" s="159"/>
       <c r="C4" t="s">
         <v>160</v>
       </c>
@@ -13998,7 +13998,7 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -14021,7 +14021,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B6" s="158"/>
+      <c r="B6" s="159"/>
       <c r="C6" t="s">
         <v>150</v>
       </c>
@@ -14042,7 +14042,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B7" s="158"/>
+      <c r="B7" s="159"/>
       <c r="C7" t="s">
         <v>160</v>
       </c>
@@ -14063,7 +14063,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B8" s="158" t="s">
+      <c r="B8" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
@@ -14086,7 +14086,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B9" s="158"/>
+      <c r="B9" s="159"/>
       <c r="C9" t="s">
         <v>150</v>
       </c>
@@ -14107,7 +14107,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B10" s="158"/>
+      <c r="B10" s="159"/>
       <c r="C10" t="s">
         <v>160</v>
       </c>
@@ -14128,7 +14128,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
@@ -14151,7 +14151,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B12" s="158"/>
+      <c r="B12" s="159"/>
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -14172,7 +14172,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B13" s="158"/>
+      <c r="B13" s="159"/>
       <c r="C13" t="s">
         <v>160</v>
       </c>
@@ -14193,7 +14193,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B14" s="158" t="s">
+      <c r="B14" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -14216,7 +14216,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B15" s="158"/>
+      <c r="B15" s="159"/>
       <c r="C15" t="s">
         <v>150</v>
       </c>
@@ -14237,7 +14237,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="158"/>
+      <c r="B16" s="159"/>
       <c r="C16" t="s">
         <v>160</v>
       </c>
@@ -14291,7 +14291,7 @@
       <c r="A19" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="158" t="s">
+      <c r="B19" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C19" t="s">
@@ -14314,7 +14314,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B20" s="158"/>
+      <c r="B20" s="159"/>
       <c r="C20" t="s">
         <v>150</v>
       </c>
@@ -14335,7 +14335,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="158"/>
+      <c r="B21" s="159"/>
       <c r="C21" t="s">
         <v>160</v>
       </c>
@@ -14356,7 +14356,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
@@ -14379,7 +14379,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="158"/>
+      <c r="B23" s="159"/>
       <c r="C23" t="s">
         <v>150</v>
       </c>
@@ -14400,7 +14400,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="158"/>
+      <c r="B24" s="159"/>
       <c r="C24" t="s">
         <v>160</v>
       </c>
@@ -14421,7 +14421,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C25" t="s">
@@ -14444,7 +14444,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="158"/>
+      <c r="B26" s="159"/>
       <c r="C26" t="s">
         <v>150</v>
       </c>
@@ -14465,7 +14465,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="158"/>
+      <c r="B27" s="159"/>
       <c r="C27" t="s">
         <v>160</v>
       </c>
@@ -14486,7 +14486,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
@@ -14509,7 +14509,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="158"/>
+      <c r="B29" s="159"/>
       <c r="C29" t="s">
         <v>150</v>
       </c>
@@ -14530,7 +14530,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="158"/>
+      <c r="B30" s="159"/>
       <c r="C30" t="s">
         <v>160</v>
       </c>
@@ -14551,7 +14551,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="158" t="s">
+      <c r="B31" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C31" t="s">
@@ -14574,7 +14574,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="158"/>
+      <c r="B32" s="159"/>
       <c r="C32" t="s">
         <v>150</v>
       </c>
@@ -14595,7 +14595,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B33" s="158"/>
+      <c r="B33" s="159"/>
       <c r="C33" t="s">
         <v>160</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="A36" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="158" t="s">
+      <c r="B36" s="159" t="s">
         <v>72</v>
       </c>
       <c r="C36" t="s">
@@ -14665,7 +14665,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B37" s="158"/>
+      <c r="B37" s="159"/>
       <c r="C37" t="s">
         <v>150</v>
       </c>
@@ -14686,7 +14686,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B38" s="158"/>
+      <c r="B38" s="159"/>
       <c r="C38" t="s">
         <v>160</v>
       </c>
@@ -14708,7 +14708,7 @@
       <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="159" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
@@ -14731,7 +14731,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B40" s="158"/>
+      <c r="B40" s="159"/>
       <c r="C40" t="s">
         <v>150</v>
       </c>
@@ -14752,7 +14752,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B41" s="158"/>
+      <c r="B41" s="159"/>
       <c r="C41" t="s">
         <v>160</v>
       </c>
@@ -14773,7 +14773,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B42" s="158" t="s">
+      <c r="B42" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C42" t="s">
@@ -14796,7 +14796,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B43" s="158"/>
+      <c r="B43" s="159"/>
       <c r="C43" t="s">
         <v>150</v>
       </c>
@@ -14817,7 +14817,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B44" s="158"/>
+      <c r="B44" s="159"/>
       <c r="C44" t="s">
         <v>160</v>
       </c>
@@ -14838,7 +14838,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B45" s="158" t="s">
+      <c r="B45" s="159" t="s">
         <v>8</v>
       </c>
       <c r="C45" t="s">
@@ -14861,7 +14861,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B46" s="158"/>
+      <c r="B46" s="159"/>
       <c r="C46" t="s">
         <v>150</v>
       </c>
@@ -14882,7 +14882,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B47" s="158"/>
+      <c r="B47" s="159"/>
       <c r="C47" t="s">
         <v>160</v>
       </c>
@@ -14903,7 +14903,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B48" s="158" t="s">
+      <c r="B48" s="159" t="s">
         <v>9</v>
       </c>
       <c r="C48" t="s">
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B49" s="158"/>
+      <c r="B49" s="159"/>
       <c r="C49" t="s">
         <v>150</v>
       </c>
@@ -14947,7 +14947,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="158"/>
+      <c r="B50" s="159"/>
       <c r="C50" t="s">
         <v>160</v>
       </c>
@@ -14992,11 +14992,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -15007,6 +15002,11 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -15242,8 +15242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15357,8 +15357,8 @@
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D8">
-        <v>10.49</v>
+      <c r="D8" s="89">
+        <v>3.78</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -15372,8 +15372,8 @@
         <f t="shared" ref="C9:C12" si="0">1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D9">
-        <v>10.49</v>
+      <c r="D9" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -15387,8 +15387,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D10">
-        <v>10.49</v>
+      <c r="D10" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E10">
         <v>0.05</v>
@@ -15402,8 +15402,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D11">
-        <v>10.49</v>
+      <c r="D11" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -15417,8 +15417,8 @@
         <f t="shared" si="0"/>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D12">
-        <v>10.49</v>
+      <c r="D12" s="89">
+        <v>2.6225000000000001</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -26792,7 +26792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
@@ -27823,7 +27823,7 @@
       <c r="C97" s="23">
         <v>0</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <v>5.8299999999999998E-2</v>
       </c>
     </row>
